--- a/TEA/TEA_WSS desulfurization.xlsx
+++ b/TEA/TEA_WSS desulfurization.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSID_17\Desktop\이혜정\3.2023\SCI 6. 환경팀\경제성 평가\WSS desulfurization process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSID_PC22\Documents\GitHub\TeamEnv\TEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82EAE0F-583D-484B-B656-2AEC74FA92EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11190" windowHeight="8940" activeTab="2"/>
+    <workbookView xWindow="20172" yWindow="0" windowWidth="20172" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Desulf" sheetId="5" r:id="rId1"/>
     <sheet name="Desulf EAC&amp;TPC" sheetId="6" r:id="rId2"/>
     <sheet name="Desulf revenue" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -467,7 +479,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -786,7 +798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,9 +806,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -903,19 +912,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
@@ -956,7 +959,6 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -976,9 +978,6 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1277,34 +1276,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" customWidth="1"/>
+    <col min="7" max="7" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="107.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1"/>
-    <row r="4" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B4" s="5" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="18" thickBot="1"/>
+    <row r="4" spans="2:10" ht="18" thickBot="1">
+      <c r="B4" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1328,273 +1327,272 @@
       <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="64">
         <v>147800</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="64">
         <v>461492</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="68">
+      <c r="F5" s="65"/>
+      <c r="G5" s="64">
         <v>0.5</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="64">
         <v>1997</v>
       </c>
       <c r="I5" s="2">
         <f>C5*(F5/E5)^G5*(595.6/386.5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="7" t="s">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="64">
         <v>20000</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="64">
         <v>2500</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70">
+      <c r="F6" s="65"/>
+      <c r="G6" s="66">
         <v>0.6</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="64">
         <v>1987</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f>C6*(F6/E6)^G6*(595.6/323.8)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="7" t="s">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="64">
         <v>20000</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="64">
         <v>2500</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70">
+      <c r="F7" s="65"/>
+      <c r="G7" s="66">
         <v>0.6</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="64">
         <v>1987</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="61">
         <f>C7*(F7/E7)^G7*(595.6/323.8)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="7" t="s">
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="64">
         <v>165000</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="64">
         <v>359263</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="3">
+      <c r="F8" s="41"/>
+      <c r="G8">
         <v>0.6</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>1998</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f>C8*(F8/E8)^G8*(595.6/389.5)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B9" s="8" t="s">
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" ht="18" thickBot="1">
+      <c r="B9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="64">
         <v>165000</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="64">
         <v>359263</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="3">
+      <c r="F9" s="41"/>
+      <c r="G9">
         <v>0.6</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>1998</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f>C9*(F9/E9)^G9*(595.6/389.5)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="71"/>
-    </row>
-    <row r="10" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B10" s="40" t="s">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="18" thickBot="1">
+      <c r="B10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="45">
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="42">
         <f>SUM(I5:I9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="2:10">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="17.25" thickBot="1"/>
-    <row r="17" spans="1:4" ht="17.25" thickBot="1">
-      <c r="B17" s="5" t="s">
+    <row r="16" spans="2:10" ht="18" thickBot="1"/>
+    <row r="17" spans="1:4" ht="18" thickBot="1">
+      <c r="B17" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="39">
+      <c r="C18" s="67"/>
+      <c r="D18" s="38">
         <f>C18*C31*C28</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="39">
+      <c r="C19" s="63"/>
+      <c r="D19" s="38">
         <f>C19*C31*C28</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="39">
+      <c r="C20" s="63"/>
+      <c r="D20" s="38">
         <f>C20*C31*C28</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="39">
+      <c r="C21" s="63"/>
+      <c r="D21" s="38">
         <f>C21*C30*C28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.25" thickBot="1">
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:4" ht="18" thickBot="1">
+      <c r="B22" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="39">
+      <c r="C22" s="68"/>
+      <c r="D22" s="38">
         <f>C22*C31*C28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.25" thickBot="1">
-      <c r="B23" s="40" t="s">
+    <row r="23" spans="1:4" ht="18" thickBot="1">
+      <c r="B23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="62">
+      <c r="C23" s="40"/>
+      <c r="D23" s="58">
         <f>SUM(D18:D22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17.25" thickBot="1"/>
-    <row r="28" spans="1:4" ht="17.25" thickBot="1">
-      <c r="B28" s="6" t="s">
+    <row r="27" spans="1:4" ht="18" thickBot="1"/>
+    <row r="28" spans="1:4" ht="18" thickBot="1">
+      <c r="B28" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C28" s="2">
         <f>8500*3600</f>
         <v>30600000</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>8500</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="60">
         <v>0.06</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="44">
         <v>-8.8900000000000003E-10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:4" ht="18" thickBot="1">
+      <c r="A31" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="45">
         <v>7.9500000000000001E-9</v>
       </c>
     </row>
@@ -1605,604 +1603,604 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="55.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:11" ht="18" thickBot="1">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="I3" s="27" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="I3" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-    </row>
-    <row r="4" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B4" s="12" t="s">
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="2:11" ht="18" thickBot="1">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="I5" s="31" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="I5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="51"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="20"/>
-      <c r="I6" s="17" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="19"/>
+      <c r="I6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="49">
         <f>SUM(E29*0.01)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>30</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="43">
         <f>Desulf!I10</f>
         <v>0</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="52"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="49"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>10</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f>SUM(E29*0.1)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="K8" s="50" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>5</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <f>SUM(E29*0.05)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="59">
         <f>Desulf!D23</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>10</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <f>SUM(E29*0.1)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="54" t="s">
+      <c r="J10" s="33"/>
+      <c r="K10" s="51" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>5</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <f>SUM(E29*0.05)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="K11" s="60" t="s">
+      <c r="K11" s="57" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="20"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="20"/>
-      <c r="I12" s="17" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="19"/>
+      <c r="I12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="52">
         <f>SUM(K6*0.04)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="20"/>
-      <c r="I13" s="17" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="I13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="49">
         <f>SUM(K25*0.15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>8</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <f>SUM(E29*0.08)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="49">
         <f>SUM(K13*0.3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>2</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <f>SUM(E29*0.02)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="49">
         <f>SUM(K12*0.15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>8</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <f>SUM(E29*0.08)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="49">
         <f>SUM(K13*0.15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>2</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <f>SUM(E29*0.02)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="52"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="49"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="20"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="20"/>
-      <c r="I18" s="22" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="19"/>
+      <c r="I18" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="49">
         <f>SUM(0.6*K29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="20">
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19">
         <f>SUM(E7:E17)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="52"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="49"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="20"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="20"/>
-      <c r="I20" s="22" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="19"/>
+      <c r="I20" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="34"/>
-      <c r="K20" s="52"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="49"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="20"/>
-      <c r="I21" s="17" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="19"/>
+      <c r="I21" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="K21" s="52">
+      <c r="K21" s="49">
         <f>SUM(K13*0.175)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="17">
         <v>5</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <f>SUM(E29*0.05)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="52">
+      <c r="K22" s="49">
         <f>SUM(K25*0.11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="17">
         <v>5</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <f>SUM(E29*0.05)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K23" s="52">
+      <c r="K23" s="49">
         <f>SUM(K25*0.035)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="17">
         <v>5</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <f>SUM(E29*0.05)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="52"/>
-    </row>
-    <row r="25" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B25" s="20" t="s">
+      <c r="I24" s="16"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="49"/>
+    </row>
+    <row r="25" spans="2:11" ht="18" thickBot="1">
+      <c r="B25" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <v>5</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <f>SUM(E29*0.05)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="56">
+      <c r="J25" s="24"/>
+      <c r="K25" s="53">
         <f>SUM(K27/0.49425)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="20"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="20"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="57"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="19"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="54"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="20">
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="19">
         <f>SUM(E22:E25)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="57">
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="54">
         <f>SUM(K6:K12,K15,0.6*K12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="20"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="20"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="58"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="19"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="55"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <v>100</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <v>100</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <f>SUM(E7*100/D7)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11" t="s">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K29" s="58">
+      <c r="K29" s="55">
         <f>(K12+K13+K14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <v>20</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="20">
         <v>20</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="19">
         <f>SUM(E29*0.2)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="59">
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="56">
         <f>SUM(K6:K23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="16">
         <v>20</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <v>20</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <f>SUM(E29*0.2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="20"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="20"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="16">
+      <c r="D33" s="22"/>
+      <c r="E33" s="15">
         <f>SUM(E29:E31)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="17.25" thickBot="1">
-      <c r="B34" s="24" t="s">
+    <row r="34" spans="2:5" ht="18" thickBot="1">
+      <c r="B34" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="24">
+      <c r="D34" s="25"/>
+      <c r="E34" s="23">
         <f>SUM(E33/((1-(1/((1.05)^25)))/0.07))</f>
         <v>0</v>
       </c>
@@ -2214,42 +2212,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:5" ht="17.25" thickBot="1">
-      <c r="B2" s="5"/>
-      <c r="C2" s="75" t="s">
+    <row r="1" spans="2:5" ht="18" thickBot="1"/>
+    <row r="2" spans="2:5" ht="18" thickBot="1">
+      <c r="B2" s="4"/>
+      <c r="C2" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="40" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:5" ht="18" thickBot="1">
+      <c r="B3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="74">
+      <c r="C3" s="71"/>
+      <c r="D3" s="69">
         <v>500</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="72">
         <f>C3*D3*8500</f>
         <v>0</v>
       </c>

--- a/TEA/TEA_WSS desulfurization.xlsx
+++ b/TEA/TEA_WSS desulfurization.xlsx
@@ -1,27 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSID_PC22\Documents\GitHub\TeamEnv\TEA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\안나현\Documents\GitHub\TeamEnv\TEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82EAE0F-583D-484B-B656-2AEC74FA92EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC8404A-4013-455B-BA0E-F0E65F3B1A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20172" yWindow="0" windowWidth="20172" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Desulf" sheetId="5" r:id="rId1"/>
-    <sheet name="Desulf EAC&amp;TPC" sheetId="6" r:id="rId2"/>
-    <sheet name="Desulf revenue" sheetId="7" r:id="rId3"/>
+    <sheet name="Desulf" sheetId="1" r:id="rId1"/>
+    <sheet name="Desulf EAC&amp;TPC" sheetId="2" r:id="rId2"/>
+    <sheet name="Desulf revenue" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -38,442 +35,324 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
   <si>
     <t>Capex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment</t>
   </si>
   <si>
     <t>Reference equpment cost ($)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Scale paramter </t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Refernece capacity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Capacity </t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Capacity correction factor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Refernece year</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Equipment cost ($)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>LIME-DS</t>
+  </si>
+  <si>
+    <t>Feed flow rate (kg/h)</t>
+  </si>
+  <si>
+    <t>SCRUBBER</t>
+  </si>
+  <si>
+    <t>Volume (gal)</t>
+  </si>
+  <si>
+    <t>GYP-CR</t>
+  </si>
+  <si>
+    <t>GAS-SP</t>
+  </si>
+  <si>
+    <t>GYP-SP</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>Opex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block heat duty (cal/sec)</t>
+  </si>
+  <si>
+    <t>Annual operating cost</t>
+  </si>
+  <si>
+    <t>Annual operating hours [sec/yr]</t>
+  </si>
+  <si>
+    <t>Electricity cost [$/kWh]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Cooling price [$/cal]</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Heating price [$/cal]</t>
   </si>
   <si>
     <t>EAC (B.P)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPC (BP)</t>
   </si>
   <si>
     <t xml:space="preserve">Classification </t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>% of FCI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Used </t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Value</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Range</t>
   </si>
   <si>
     <t>Direct cost</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed charge(FC) = FCI * 0.08</t>
   </si>
   <si>
     <t>ISBL (Inside battery limit, 전체공사구역 중 주 공정시설)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local taxes, Insurance</t>
+  </si>
+  <si>
+    <t>8% of FCI</t>
   </si>
   <si>
     <t xml:space="preserve">Equipment cost &lt;&lt; 직접 구하길 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20-40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct production cost (DPC)</t>
   </si>
   <si>
     <t>Installation of equipment = FCI * 0.1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>7.3-26</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carbon tax</t>
   </si>
   <si>
     <t>Instrument and control = FCI * 0.05</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2.5-7.0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw materials </t>
   </si>
   <si>
     <t>Piping = FCI * 0.1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3.0-15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Membrane replacement cost</t>
   </si>
   <si>
     <t>Electrical = FCI * 0.05</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2.5-9.0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>$0.06/kWh</t>
+  </si>
+  <si>
+    <t>Matinenenance (M) = FC * 0.08</t>
   </si>
   <si>
     <t>OSBL(Outside bettery limit,주공정시설 외 부대시설)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operating labor (OL) = TPC * 0.15</t>
+  </si>
+  <si>
+    <t>15% of OPEX</t>
   </si>
   <si>
     <t>Building and building services = FCI * 0.08</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>6.0-20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supervision and support labor (S) = labor * 0.3</t>
+  </si>
+  <si>
+    <t>30% of OL</t>
   </si>
   <si>
     <t>Yard improvements = FCI * 0.02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.5-5.0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operating supplies = maintenance * 0.15</t>
+  </si>
+  <si>
+    <t>15% of M</t>
   </si>
   <si>
     <t>Services facilities = FCI * 0.08</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>8.0-35</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laboratory charges = labor * 0.15</t>
+  </si>
+  <si>
+    <t>15% of OL</t>
   </si>
   <si>
     <t>Land = FCI * 0.02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.0-2.0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plant overhead cost(OVHD)</t>
+  </si>
+  <si>
+    <t>60% of M+OL+S</t>
   </si>
   <si>
     <t>Total direct cost = FCI * 0.5 + Equipment cost</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>General expenses</t>
   </si>
   <si>
     <t>Indirect cost</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Admistrative cost </t>
+  </si>
+  <si>
+    <t>17.5% of OL</t>
   </si>
   <si>
     <t>Engineering = FCI * 0.05</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4.0-21</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distribution and marketing</t>
+  </si>
+  <si>
+    <t>11% of OPEX</t>
   </si>
   <si>
     <t>Construction expenses = FCI * 0.05</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4.8-22</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D cost </t>
+  </si>
+  <si>
+    <t>3.5% of OPEX</t>
   </si>
   <si>
     <t>Contractor's fee = FCI * 0.05</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Contingency = FCI * 0.05</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>5.0-20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPC</t>
   </si>
   <si>
     <t>Total indirect cost = FCI * 0.2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Fixed capital investment (FCI)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVHD</t>
   </si>
   <si>
     <t>Start up cost (SUC)  = FCI * 0.2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Working capital investment (WCI)  = FCI * 0.2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TCI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NPV</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EAC (r=7%, t=25 year)    RP=r, NP=t</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EAC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPC (BP)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Classification</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fixed charge(FC) = FCI * 0.08</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local taxes, Insurance</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8% of FCI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Direct production cost (DPC)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carbon tax</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw materials </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Membrane replacement cost</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electricity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matinenenance (M) = FC * 0.08</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operating labor (OL) = TPC * 0.15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15% of OPEX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supervision and support labor (S) = labor * 0.3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30% of OL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operating supplies = maintenance * 0.15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15% of M</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Laboratory charges = labor * 0.15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15% of OL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plant overhead cost(OVHD)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60% of M+OL+S</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>General expenses</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Admistrative cost </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>17.5% of OL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distribution and marketing</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11% of OPEX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D cost </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5% of OPEX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OVHD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equipment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block heat duty (cal/sec)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electricity cost [$/kWh]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ref</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feed flow rate (kg/h)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cooling price [$/cal]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heating price [$/cal]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Annual operating cost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Annual operating hours [sec/yr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$0.06/kWh</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feed flow rate (kg/h)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIME-DS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCRUBBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GYP-CR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAS-SP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GYP-SP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volume (gal)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volume (gal)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow rate [tonne/h]</t>
+  </si>
+  <si>
+    <t>Cost [USD/tonne]</t>
+  </si>
+  <si>
+    <t>Revenue [$/yr]</t>
   </si>
   <si>
     <t>CALCI-02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flow rate [tonne/h]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost [USD/tonne]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Revenue [$/yr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -484,7 +363,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,13 +392,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -794,11 +666,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,95 +693,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
@@ -931,53 +797,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1285,15 +1148,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" customWidth="1"/>
-    <col min="7" max="7" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="107.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.59765625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="23.69921875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="107.5" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -1301,128 +1164,136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="18" thickBot="1"/>
-    <row r="4" spans="2:10" ht="18" thickBot="1">
+    <row r="3" spans="2:10" ht="18" customHeight="1" thickBot="1"/>
+    <row r="4" spans="2:10" ht="18" customHeight="1" thickBot="1">
       <c r="B4" s="4" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="64">
+        <v>10</v>
+      </c>
+      <c r="C5" s="61">
         <v>147800</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="64">
+      <c r="D5" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="61">
         <v>461492</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="64">
+      <c r="F5" s="62">
+        <v>6987.5</v>
+      </c>
+      <c r="G5" s="61">
         <v>0.5</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="61">
         <v>1997</v>
       </c>
       <c r="I5" s="2">
         <f>C5*(F5/E5)^G5*(595.6/386.5)</f>
-        <v>0</v>
+        <v>28025.82764852437</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="64">
+        <v>12</v>
+      </c>
+      <c r="C6" s="61">
         <v>20000</v>
       </c>
-      <c r="D6" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="64">
+      <c r="D6" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="61">
         <v>2500</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66">
+      <c r="F6" s="62">
+        <v>3607.7052042300002</v>
+      </c>
+      <c r="G6" s="63">
         <v>0.6</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="61">
         <v>1987</v>
       </c>
       <c r="I6" s="3">
         <f>C6*(F6/E6)^G6*(595.6/323.8)</f>
-        <v>0</v>
+        <v>45843.99546107318</v>
       </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="64">
+        <v>14</v>
+      </c>
+      <c r="C7" s="61">
         <v>20000</v>
       </c>
-      <c r="D7" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="64">
+      <c r="D7" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="61">
         <v>2500</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66">
+      <c r="F7" s="62">
+        <v>3607.5895233112001</v>
+      </c>
+      <c r="G7" s="63">
         <v>0.6</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7" s="61">
         <v>1987</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="58">
         <f>C7*(F7/E7)^G7*(595.6/323.8)</f>
-        <v>0</v>
+        <v>45843.113463920992</v>
       </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="64">
+        <v>15</v>
+      </c>
+      <c r="C8" s="61">
         <v>165000</v>
       </c>
-      <c r="D8" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="64">
+      <c r="D8" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="61">
         <v>359263</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="39">
+        <v>6989.5142900000001</v>
+      </c>
       <c r="G8">
         <v>0.6</v>
       </c>
@@ -1431,24 +1302,26 @@
       </c>
       <c r="I8" s="3">
         <f>C8*(F8/E8)^G8*(595.6/389.5)</f>
-        <v>0</v>
+        <v>23732.958198230132</v>
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:10" ht="18" thickBot="1">
+    <row r="9" spans="2:10" ht="18" customHeight="1" thickBot="1">
       <c r="B9" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="64">
+        <v>16</v>
+      </c>
+      <c r="C9" s="61">
         <v>165000</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="64">
+      <c r="D9" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="61">
         <v>359263</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="39">
+        <v>6989.5142900000001</v>
+      </c>
       <c r="G9">
         <v>0.6</v>
       </c>
@@ -1457,106 +1330,116 @@
       </c>
       <c r="I9" s="3">
         <f>C9*(F9/E9)^G9*(595.6/389.5)</f>
-        <v>0</v>
+        <v>23732.958198230132</v>
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="2:10" ht="18" thickBot="1">
+    <row r="10" spans="2:10" ht="18" customHeight="1" thickBot="1">
       <c r="B10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="42">
+        <v>17</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="40">
         <f>SUM(I5:I9)</f>
-        <v>0</v>
+        <v>167178.85296997882</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="18" thickBot="1"/>
-    <row r="17" spans="1:4" ht="18" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="18" customHeight="1" thickBot="1"/>
+    <row r="17" spans="1:4" ht="18" customHeight="1" thickBot="1">
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="38">
+        <v>10</v>
+      </c>
+      <c r="C18" s="64">
+        <v>4891.4951700000001</v>
+      </c>
+      <c r="D18" s="36">
         <f>C18*C31*C28</f>
-        <v>0</v>
+        <v>1189.9540300059</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="38">
+        <v>12</v>
+      </c>
+      <c r="C19" s="60">
+        <v>55050.237999999998</v>
+      </c>
+      <c r="D19" s="36">
         <f>C19*C31*C28</f>
-        <v>0</v>
+        <v>13392.071398260001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="38">
+        <v>14</v>
+      </c>
+      <c r="C20" s="60">
+        <v>-3.43573467</v>
+      </c>
+      <c r="D20" s="36">
         <f>C20*C31*C28</f>
-        <v>0</v>
+        <v>-0.83581117317090003</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="38">
+        <v>15</v>
+      </c>
+      <c r="C21" s="60">
+        <v>-7354.8421399999997</v>
+      </c>
+      <c r="D21" s="36">
         <f>C21*C30*C28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1">
+        <v>200.076712671276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1" thickBot="1">
       <c r="B22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="38">
+        <v>16</v>
+      </c>
+      <c r="C22" s="65">
+        <v>2.5933760000000001E-3</v>
+      </c>
+      <c r="D22" s="36">
         <f>C22*C31*C28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1">
+        <v>6.3089057952000008E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1" thickBot="1">
       <c r="B23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="58">
+        <v>17</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="55">
         <f>SUM(D18:D22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1"/>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+        <v>14781.266960654586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" customHeight="1" thickBot="1"/>
+    <row r="28" spans="1:4" ht="18" customHeight="1" thickBot="1">
       <c r="B28" s="5" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2">
         <f>8500*3600</f>
@@ -1567,32 +1450,32 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="60">
+      <c r="B29" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="57">
         <v>0.06</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="44">
+        <v>23</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="42">
         <v>-8.8900000000000003E-10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18" thickBot="1">
+    <row r="31" spans="1:4" ht="18" customHeight="1" thickBot="1">
       <c r="A31" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="45">
+        <v>25</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="43">
         <v>7.9500000000000001E-9</v>
       </c>
     </row>
@@ -1612,194 +1495,194 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="55.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.8984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.8984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.69921875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.19921875" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="18" thickBot="1">
+    <row r="3" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="B3" s="9" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="I3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-    </row>
-    <row r="4" spans="2:11" ht="18" thickBot="1">
+      <c r="I3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="B4" s="11" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="15" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
-      <c r="I5" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="48"/>
+      <c r="I5" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="46"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="15" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
       <c r="E6" s="19"/>
       <c r="I6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="49">
+        <v>38</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="47">
         <f>SUM(E29*0.01)</f>
-        <v>0</v>
+        <v>5572.6284323326281</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="19" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D7" s="20">
         <v>30</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="41">
         <f>Desulf!I10</f>
-        <v>0</v>
+        <v>167178.85296997882</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="49"/>
+        <v>42</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="19" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D8" s="17">
         <v>10</v>
       </c>
       <c r="E8" s="19">
         <f>SUM(E29*0.1)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="50" t="s">
-        <v>87</v>
+        <v>55726.284323326283</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="19" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D9" s="17">
         <v>5</v>
       </c>
       <c r="E9" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="59">
+        <v>27863.142161663141</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="56">
         <f>Desulf!D23</f>
-        <v>0</v>
+        <v>14781.266960654586</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="19" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D10" s="17">
         <v>10</v>
       </c>
       <c r="E10" s="19">
         <f>SUM(E29*0.1)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="51" t="s">
-        <v>87</v>
+        <v>55726.284323326283</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="19" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D11" s="17">
         <v>5</v>
       </c>
       <c r="E11" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="57" t="s">
-        <v>87</v>
+        <v>27863.142161663141</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -1808,126 +1691,126 @@
       <c r="D12" s="17"/>
       <c r="E12" s="19"/>
       <c r="I12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="52">
+        <v>56</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="50">
         <f>SUM(K6*0.04)</f>
-        <v>0</v>
+        <v>222.90513729330513</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="15" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="19"/>
       <c r="I13" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="49">
+        <v>58</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="47">
         <f>SUM(K25*0.15)</f>
-        <v>0</v>
+        <v>6295.5931360396053</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="19" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D14" s="17">
         <v>8</v>
       </c>
       <c r="E14" s="19">
         <f>SUM(E29*0.08)</f>
-        <v>0</v>
+        <v>44581.027458661025</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="49">
+        <v>62</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="47">
         <f>SUM(K13*0.3)</f>
-        <v>0</v>
+        <v>1888.6779408118814</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="19" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D15" s="17">
         <v>2</v>
       </c>
       <c r="E15" s="19">
         <f>SUM(E29*0.02)</f>
-        <v>0</v>
+        <v>11145.256864665256</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="49">
+        <v>66</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="47">
         <f>SUM(K12*0.15)</f>
-        <v>0</v>
+        <v>33.43577059399577</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="19" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D16" s="17">
         <v>8</v>
       </c>
       <c r="E16" s="19">
         <f>SUM(E29*0.08)</f>
-        <v>0</v>
+        <v>44581.027458661025</v>
       </c>
       <c r="I16" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16" s="49">
+      <c r="K16" s="47">
         <f>SUM(K13*0.15)</f>
-        <v>0</v>
+        <v>944.3389704059407</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="19" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D17" s="17">
         <v>2</v>
       </c>
       <c r="E17" s="19">
         <f>SUM(E29*0.02)</f>
-        <v>0</v>
+        <v>11145.256864665256</v>
       </c>
       <c r="I17" s="16"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="49"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="19"/>
@@ -1935,29 +1818,29 @@
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
       <c r="I18" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="49">
+      <c r="J18" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="47">
         <f>SUM(0.6*K29)</f>
-        <v>0</v>
+        <v>5044.3057284868755</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="15" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="19">
         <f>SUM(E7:E17)</f>
-        <v>0</v>
+        <v>445810.27458661015</v>
       </c>
       <c r="I19" s="16"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="49"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="19"/>
@@ -1965,118 +1848,118 @@
       <c r="D20" s="17"/>
       <c r="E20" s="19"/>
       <c r="I20" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="49"/>
+        <v>77</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="47"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="15" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="19"/>
       <c r="I21" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="49">
+        <v>79</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="47">
         <f>SUM(K13*0.175)</f>
-        <v>0</v>
+        <v>1101.7287988069309</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="19" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D22" s="17">
         <v>5</v>
       </c>
       <c r="E22" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" s="49">
+        <v>27863.142161663141</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="47">
         <f>SUM(K25*0.11)</f>
-        <v>0</v>
+        <v>4616.768299762377</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="19" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D23" s="17">
         <v>5</v>
       </c>
       <c r="E23" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>0</v>
+        <v>27863.142161663141</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23" s="49">
+        <v>87</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="47">
         <f>SUM(K25*0.035)</f>
-        <v>0</v>
+        <v>1468.9717317425745</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="19" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D24" s="17">
         <v>5</v>
       </c>
       <c r="E24" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>0</v>
+        <v>27863.142161663141</v>
       </c>
       <c r="I24" s="16"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="49"/>
-    </row>
-    <row r="25" spans="2:11" ht="18" thickBot="1">
+      <c r="J24" s="34"/>
+      <c r="K24" s="47"/>
+    </row>
+    <row r="25" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="B25" s="19" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="D25" s="17">
         <v>5</v>
       </c>
       <c r="E25" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>0</v>
+        <v>27863.142161663141</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J25" s="24"/>
-      <c r="K25" s="53">
+      <c r="K25" s="51">
         <f>SUM(K27/0.49425)</f>
-        <v>0</v>
+        <v>41970.620906930701</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -2084,25 +1967,25 @@
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="19"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="54"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="52"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="15" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="19">
         <f>SUM(E22:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="54">
+        <v>111452.56864665257</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="52">
         <f>SUM(K6:K12,K15,0.6*K12)</f>
-        <v>0</v>
+        <v>20743.979383250498</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -2112,11 +1995,11 @@
       <c r="E28" s="19"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="55"/>
+      <c r="K28" s="52"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="19" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C29" s="16">
         <v>100</v>
@@ -2126,20 +2009,20 @@
       </c>
       <c r="E29" s="19">
         <f>SUM(E7*100/D7)</f>
-        <v>0</v>
+        <v>557262.84323326277</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K29" s="55">
+        <v>95</v>
+      </c>
+      <c r="K29" s="52">
         <f>(K12+K13+K14)</f>
-        <v>0</v>
+        <v>8407.1762141447925</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="19" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C30" s="16">
         <v>20</v>
@@ -2149,18 +2032,16 @@
       </c>
       <c r="E30" s="19">
         <f>SUM(E29*0.2)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="56">
+        <v>111452.56864665257</v>
+      </c>
+      <c r="K30" s="53">
         <f>SUM(K6:K23)</f>
-        <v>0</v>
+        <v>41970.620906930701</v>
       </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="19" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C31" s="16">
         <v>20</v>
@@ -2170,7 +2051,7 @@
       </c>
       <c r="E31" s="19">
         <f>SUM(E29*0.2)</f>
-        <v>0</v>
+        <v>111452.56864665257</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -2181,28 +2062,28 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="15" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="15">
         <f>SUM(E29:E31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="18" thickBot="1">
+        <v>780167.9805265679</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="18" customHeight="1" thickBot="1">
       <c r="B34" s="23" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="23">
         <f>SUM(E33/((1-(1/((1.05)^25)))/0.07))</f>
-        <v>0</v>
+        <v>77496.769454352529</v>
       </c>
     </row>
   </sheetData>
@@ -2221,35 +2102,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="3" max="3" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" customWidth="1"/>
+    <col min="3" max="3" width="18.8984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1"/>
-    <row r="2" spans="2:5" ht="18" thickBot="1">
+    <row r="1" spans="2:5" ht="18" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:5" ht="18" customHeight="1" thickBot="1">
       <c r="B2" s="4"/>
-      <c r="C2" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="18" thickBot="1">
+      <c r="C2" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="18" customHeight="1" thickBot="1">
       <c r="B3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="69">
+      <c r="C3" s="68">
+        <v>1.0542539E-2</v>
+      </c>
+      <c r="D3" s="66">
         <v>500</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="69">
         <f>C3*D3*8500</f>
-        <v>0</v>
+        <v>44805.79075</v>
       </c>
     </row>
   </sheetData>

--- a/TEA/TEA_WSS desulfurization.xlsx
+++ b/TEA/TEA_WSS desulfurization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\안나현\Documents\GitHub\TeamEnv\TEA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSID_PC22\Documents\GitHub\TeamEnv\TEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC8404A-4013-455B-BA0E-F0E65F3B1A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE79DA9-1929-4E38-B86C-E67BD00FA163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="30264" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Desulf" sheetId="1" r:id="rId1"/>
@@ -1208,7 +1208,7 @@
         <v>461492</v>
       </c>
       <c r="F5" s="62">
-        <v>6987.5</v>
+        <v>478593.375</v>
       </c>
       <c r="G5" s="61">
         <v>0.5</v>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I5" s="2">
         <f>C5*(F5/E5)^G5*(595.6/386.5)</f>
-        <v>28025.82764852437</v>
+        <v>231942.79042225837</v>
       </c>
       <c r="J5" s="5"/>
     </row>
@@ -1236,7 +1236,7 @@
         <v>2500</v>
       </c>
       <c r="F6" s="62">
-        <v>3607.7052042300002</v>
+        <v>425692.98469232011</v>
       </c>
       <c r="G6" s="63">
         <v>0.6</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I6" s="3">
         <f>C6*(F6/E6)^G6*(595.6/323.8)</f>
-        <v>45843.99546107318</v>
+        <v>802419.97462361865</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -1264,7 +1264,7 @@
         <v>2500</v>
       </c>
       <c r="F7" s="62">
-        <v>3607.5895233112001</v>
+        <v>427363.36538208002</v>
       </c>
       <c r="G7" s="63">
         <v>0.6</v>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="I7" s="58">
         <f>C7*(F7/E7)^G7*(595.6/323.8)</f>
-        <v>45843.113463920992</v>
+        <v>804307.66869505681</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -1292,7 +1292,7 @@
         <v>359263</v>
       </c>
       <c r="F8" s="39">
-        <v>6989.5142900000001</v>
+        <v>479646.99699999997</v>
       </c>
       <c r="G8">
         <v>0.6</v>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I8" s="3">
         <f>C8*(F8/E8)^G8*(595.6/389.5)</f>
-        <v>23732.958198230132</v>
+        <v>300079.7669582821</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -1320,7 +1320,7 @@
         <v>359263</v>
       </c>
       <c r="F9" s="39">
-        <v>6989.5142900000001</v>
+        <v>479409.57299999997</v>
       </c>
       <c r="G9">
         <v>0.6</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I9" s="3">
         <f>C9*(F9/E9)^G9*(595.6/389.5)</f>
-        <v>23732.958198230132</v>
+        <v>299990.63491659821</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -1346,7 +1346,7 @@
       <c r="H10" s="37"/>
       <c r="I10" s="40">
         <f>SUM(I5:I9)</f>
-        <v>167178.85296997882</v>
+        <v>2438740.8356158137</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -1371,11 +1371,11 @@
         <v>10</v>
       </c>
       <c r="C18" s="64">
-        <v>4891.4951700000001</v>
+        <v>335032.15500000003</v>
       </c>
       <c r="D18" s="36">
         <f>C18*C31*C28</f>
-        <v>1189.9540300059</v>
+        <v>81503.272346850004</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1383,11 +1383,11 @@
         <v>12</v>
       </c>
       <c r="C19" s="60">
-        <v>55050.237999999998</v>
+        <v>3764850.82</v>
       </c>
       <c r="D19" s="36">
         <f>C19*C31*C28</f>
-        <v>13392.071398260001</v>
+        <v>915875.25898139994</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1395,11 +1395,11 @@
         <v>14</v>
       </c>
       <c r="C20" s="60">
-        <v>-3.43573467</v>
+        <v>1563.0429200000001</v>
       </c>
       <c r="D20" s="36">
         <f>C20*C31*C28</f>
-        <v>-0.83581117317090003</v>
+        <v>380.24145114840002</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1407,11 +1407,11 @@
         <v>15</v>
       </c>
       <c r="C21" s="60">
-        <v>-7354.8421399999997</v>
+        <v>-507154.09899999999</v>
       </c>
       <c r="D21" s="36">
         <f>C21*C30*C28</f>
-        <v>200.076712671276</v>
+        <v>13796.3158167366</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" thickBot="1">
@@ -1419,11 +1419,11 @@
         <v>16</v>
       </c>
       <c r="C22" s="65">
-        <v>2.5933760000000001E-3</v>
+        <v>-0.68698905899999996</v>
       </c>
       <c r="D22" s="36">
         <f>C22*C31*C28</f>
-        <v>6.3089057952000008E-4</v>
+        <v>-0.16712382838292997</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       <c r="C23" s="38"/>
       <c r="D23" s="55">
         <f>SUM(D18:D22)</f>
-        <v>14781.266960654586</v>
+        <v>1011554.9214723065</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" thickBot="1"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="K6" s="47">
         <f>SUM(E29*0.01)</f>
-        <v>5572.6284323326281</v>
+        <v>81291.36118719379</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="E7" s="41">
         <f>Desulf!I10</f>
-        <v>167178.85296997882</v>
+        <v>2438740.8356158137</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>42</v>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E8" s="19">
         <f>SUM(E29*0.1)</f>
-        <v>55726.284323326283</v>
+        <v>812913.61187193799</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>45</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E9" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>27863.142161663141</v>
+        <v>406456.80593596899</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>48</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="K9" s="56">
         <f>Desulf!D23</f>
-        <v>14781.266960654586</v>
+        <v>1011554.9214723065</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="E10" s="19">
         <f>SUM(E29*0.1)</f>
-        <v>55726.284323326283</v>
+        <v>812913.61187193799</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>51</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="E11" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>27863.142161663141</v>
+        <v>406456.80593596899</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>54</v>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="K12" s="50">
         <f>SUM(K6*0.04)</f>
-        <v>222.90513729330513</v>
+        <v>3251.6544474877519</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="K13" s="47">
         <f>SUM(K25*0.15)</f>
-        <v>6295.5931360396053</v>
+        <v>333395.04641657177</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="E14" s="19">
         <f>SUM(E29*0.08)</f>
-        <v>44581.027458661025</v>
+        <v>650330.88949755032</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>62</v>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="K14" s="47">
         <f>SUM(K13*0.3)</f>
-        <v>1888.6779408118814</v>
+        <v>100018.51392497153</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="E15" s="19">
         <f>SUM(E29*0.02)</f>
-        <v>11145.256864665256</v>
+        <v>162582.72237438758</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>66</v>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="K15" s="47">
         <f>SUM(K12*0.15)</f>
-        <v>33.43577059399577</v>
+        <v>487.74816712316277</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="E16" s="19">
         <f>SUM(E29*0.08)</f>
-        <v>44581.027458661025</v>
+        <v>650330.88949755032</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>70</v>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="K16" s="47">
         <f>SUM(K13*0.15)</f>
-        <v>944.3389704059407</v>
+        <v>50009.256962485764</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E17" s="19">
         <f>SUM(E29*0.02)</f>
-        <v>11145.256864665256</v>
+        <v>162582.72237438758</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="31"/>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="K18" s="47">
         <f>SUM(0.6*K29)</f>
-        <v>5044.3057284868755</v>
+        <v>261999.12887341861</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -1836,7 +1836,7 @@
       <c r="D19" s="17"/>
       <c r="E19" s="19">
         <f>SUM(E7:E17)</f>
-        <v>445810.27458661015</v>
+        <v>6503308.8949755039</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="31"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="K21" s="47">
         <f>SUM(K13*0.175)</f>
-        <v>1101.7287988069309</v>
+        <v>58344.133122900057</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="E22" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>27863.142161663141</v>
+        <v>406456.80593596899</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>83</v>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="K22" s="47">
         <f>SUM(K25*0.11)</f>
-        <v>4616.768299762377</v>
+        <v>244489.700705486</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E23" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>27863.142161663141</v>
+        <v>406456.80593596899</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>87</v>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="K23" s="47">
         <f>SUM(K25*0.035)</f>
-        <v>1468.9717317425745</v>
+        <v>77792.1774972001</v>
       </c>
     </row>
     <row r="24" spans="2:11">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>27863.142161663141</v>
+        <v>406456.80593596899</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="34"/>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="E25" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>27863.142161663141</v>
+        <v>406456.80593596899</v>
       </c>
       <c r="I25" s="24" t="s">
         <v>92</v>
@@ -1959,7 +1959,7 @@
       <c r="J25" s="24"/>
       <c r="K25" s="51">
         <f>SUM(K27/0.49425)</f>
-        <v>41970.620906930701</v>
+        <v>2222633.6427771454</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -1979,13 +1979,13 @@
       <c r="D27" s="17"/>
       <c r="E27" s="19">
         <f>SUM(E22:E25)</f>
-        <v>111452.56864665257</v>
+        <v>1625827.223743876</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="52">
         <f>SUM(K6:K12,K15,0.6*K12)</f>
-        <v>20743.979383250498</v>
+        <v>1098536.6779426041</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="E29" s="19">
         <f>SUM(E7*100/D7)</f>
-        <v>557262.84323326277</v>
+        <v>8129136.1187193794</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10" t="s">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="K29" s="52">
         <f>(K12+K13+K14)</f>
-        <v>8407.1762141447925</v>
+        <v>436665.21478903102</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -2032,11 +2032,11 @@
       </c>
       <c r="E30" s="19">
         <f>SUM(E29*0.2)</f>
-        <v>111452.56864665257</v>
+        <v>1625827.223743876</v>
       </c>
       <c r="K30" s="53">
         <f>SUM(K6:K23)</f>
-        <v>41970.620906930701</v>
+        <v>2222633.6427771454</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="E31" s="19">
         <f>SUM(E29*0.2)</f>
-        <v>111452.56864665257</v>
+        <v>1625827.223743876</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -2070,7 +2070,7 @@
       <c r="D33" s="22"/>
       <c r="E33" s="15">
         <f>SUM(E29:E31)</f>
-        <v>780167.9805265679</v>
+        <v>11380790.566207131</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="18" customHeight="1" thickBot="1">
@@ -2083,7 +2083,7 @@
       <c r="D34" s="25"/>
       <c r="E34" s="23">
         <f>SUM(E33/((1-(1/((1.05)^25)))/0.07))</f>
-        <v>77496.769454352529</v>
+        <v>1130493.0793524017</v>
       </c>
     </row>
   </sheetData>
@@ -2125,14 +2125,14 @@
         <v>105</v>
       </c>
       <c r="C3" s="68">
-        <v>1.0542539E-2</v>
+        <v>8.1591007500000003</v>
       </c>
       <c r="D3" s="66">
         <v>500</v>
       </c>
       <c r="E3" s="69">
         <f>C3*D3*8500</f>
-        <v>44805.79075</v>
+        <v>34676178.1875</v>
       </c>
     </row>
   </sheetData>

--- a/TEA/TEA_WSS desulfurization.xlsx
+++ b/TEA/TEA_WSS desulfurization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSID_PC22\Documents\GitHub\TeamEnv\TEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE79DA9-1929-4E38-B86C-E67BD00FA163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8C96BD-1F75-4383-B6DA-FB95D8C08264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="30264" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1236,7 +1236,7 @@
         <v>2500</v>
       </c>
       <c r="F6" s="62">
-        <v>425692.98469232011</v>
+        <v>247705.034131452</v>
       </c>
       <c r="G6" s="63">
         <v>0.6</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I6" s="3">
         <f>C6*(F6/E6)^G6*(595.6/323.8)</f>
-        <v>802419.97462361865</v>
+        <v>579835.41142865806</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -1264,7 +1264,7 @@
         <v>2500</v>
       </c>
       <c r="F7" s="62">
-        <v>427363.36538208002</v>
+        <v>247734.83511059999</v>
       </c>
       <c r="G7" s="63">
         <v>0.6</v>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="I7" s="58">
         <f>C7*(F7/E7)^G7*(595.6/323.8)</f>
-        <v>804307.66869505681</v>
+        <v>579877.2658398411</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -1292,7 +1292,7 @@
         <v>359263</v>
       </c>
       <c r="F8" s="39">
-        <v>479646.99699999997</v>
+        <v>480036.82</v>
       </c>
       <c r="G8">
         <v>0.6</v>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I8" s="3">
         <f>C8*(F8/E8)^G8*(595.6/389.5)</f>
-        <v>300079.7669582821</v>
+        <v>300226.07329021464</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -1320,7 +1320,7 @@
         <v>359263</v>
       </c>
       <c r="F9" s="39">
-        <v>479409.57299999997</v>
+        <v>480036.82</v>
       </c>
       <c r="G9">
         <v>0.6</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I9" s="3">
         <f>C9*(F9/E9)^G9*(595.6/389.5)</f>
-        <v>299990.63491659821</v>
+        <v>300226.07329021464</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -1346,7 +1346,7 @@
       <c r="H10" s="37"/>
       <c r="I10" s="40">
         <f>SUM(I5:I9)</f>
-        <v>2438740.8356158137</v>
+        <v>1992107.6142711868</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -1383,11 +1383,11 @@
         <v>12</v>
       </c>
       <c r="C19" s="60">
-        <v>3764850.82</v>
+        <v>3686042.04</v>
       </c>
       <c r="D19" s="36">
         <f>C19*C31*C28</f>
-        <v>915875.25898139994</v>
+        <v>896703.4470708</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1395,11 +1395,11 @@
         <v>14</v>
       </c>
       <c r="C20" s="60">
-        <v>1563.0429200000001</v>
+        <v>862.51951299999996</v>
       </c>
       <c r="D20" s="36">
         <f>C20*C31*C28</f>
-        <v>380.24145114840002</v>
+        <v>209.82512192751</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1407,11 +1407,11 @@
         <v>15</v>
       </c>
       <c r="C21" s="60">
-        <v>-507154.09899999999</v>
+        <v>-506057.071</v>
       </c>
       <c r="D21" s="36">
         <f>C21*C30*C28</f>
-        <v>13796.3158167366</v>
+        <v>13766.4729252414</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" thickBot="1">
@@ -1419,11 +1419,11 @@
         <v>16</v>
       </c>
       <c r="C22" s="65">
-        <v>-0.68698905899999996</v>
+        <v>0.22062881100000001</v>
       </c>
       <c r="D22" s="36">
         <f>C22*C31*C28</f>
-        <v>-0.16712382838292997</v>
+        <v>5.3672370851970005E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       <c r="C23" s="38"/>
       <c r="D23" s="55">
         <f>SUM(D18:D22)</f>
-        <v>1011554.9214723065</v>
+        <v>992183.07113718987</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" thickBot="1"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="K6" s="47">
         <f>SUM(E29*0.01)</f>
-        <v>81291.36118719379</v>
+        <v>66403.587142372897</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="E7" s="41">
         <f>Desulf!I10</f>
-        <v>2438740.8356158137</v>
+        <v>1992107.6142711868</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>42</v>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E8" s="19">
         <f>SUM(E29*0.1)</f>
-        <v>812913.61187193799</v>
+        <v>664035.871423729</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>45</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E9" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>406456.80593596899</v>
+        <v>332017.9357118645</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>48</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="K9" s="56">
         <f>Desulf!D23</f>
-        <v>1011554.9214723065</v>
+        <v>992183.07113718987</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="E10" s="19">
         <f>SUM(E29*0.1)</f>
-        <v>812913.61187193799</v>
+        <v>664035.871423729</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>51</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="E11" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>406456.80593596899</v>
+        <v>332017.9357118645</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>54</v>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="K12" s="50">
         <f>SUM(K6*0.04)</f>
-        <v>3251.6544474877519</v>
+        <v>2656.1434856949159</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="K13" s="47">
         <f>SUM(K25*0.15)</f>
-        <v>333395.04641657177</v>
+        <v>322681.30785418174</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="E14" s="19">
         <f>SUM(E29*0.08)</f>
-        <v>650330.88949755032</v>
+        <v>531228.69713898317</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>62</v>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="K14" s="47">
         <f>SUM(K13*0.3)</f>
-        <v>100018.51392497153</v>
+        <v>96804.392356254524</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="E15" s="19">
         <f>SUM(E29*0.02)</f>
-        <v>162582.72237438758</v>
+        <v>132807.17428474579</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>66</v>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="K15" s="47">
         <f>SUM(K12*0.15)</f>
-        <v>487.74816712316277</v>
+        <v>398.42152285423737</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="E16" s="19">
         <f>SUM(E29*0.08)</f>
-        <v>650330.88949755032</v>
+        <v>531228.69713898317</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>70</v>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="K16" s="47">
         <f>SUM(K13*0.15)</f>
-        <v>50009.256962485764</v>
+        <v>48402.196178127262</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E17" s="19">
         <f>SUM(E29*0.02)</f>
-        <v>162582.72237438758</v>
+        <v>132807.17428474579</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="31"/>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="K18" s="47">
         <f>SUM(0.6*K29)</f>
-        <v>261999.12887341861</v>
+        <v>253285.10621767867</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -1836,7 +1836,7 @@
       <c r="D19" s="17"/>
       <c r="E19" s="19">
         <f>SUM(E7:E17)</f>
-        <v>6503308.8949755039</v>
+        <v>5312286.971389831</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="31"/>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="K21" s="47">
         <f>SUM(K13*0.175)</f>
-        <v>58344.133122900057</v>
+        <v>56469.2288744818</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="E22" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>406456.80593596899</v>
+        <v>332017.9357118645</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>83</v>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="K22" s="47">
         <f>SUM(K25*0.11)</f>
-        <v>244489.700705486</v>
+        <v>236632.9590930666</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E23" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>406456.80593596899</v>
+        <v>332017.9357118645</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>87</v>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="K23" s="47">
         <f>SUM(K25*0.035)</f>
-        <v>77792.1774972001</v>
+        <v>75292.305165975748</v>
       </c>
     </row>
     <row r="24" spans="2:11">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>406456.80593596899</v>
+        <v>332017.9357118645</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="34"/>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="E25" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>406456.80593596899</v>
+        <v>332017.9357118645</v>
       </c>
       <c r="I25" s="24" t="s">
         <v>92</v>
@@ -1959,7 +1959,7 @@
       <c r="J25" s="24"/>
       <c r="K25" s="51">
         <f>SUM(K27/0.49425)</f>
-        <v>2222633.6427771454</v>
+        <v>2151208.7190278783</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -1979,13 +1979,13 @@
       <c r="D27" s="17"/>
       <c r="E27" s="19">
         <f>SUM(E22:E25)</f>
-        <v>1625827.223743876</v>
+        <v>1328071.742847458</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="52">
         <f>SUM(K6:K12,K15,0.6*K12)</f>
-        <v>1098536.6779426041</v>
+        <v>1063234.9093795288</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="E29" s="19">
         <f>SUM(E7*100/D7)</f>
-        <v>8129136.1187193794</v>
+        <v>6640358.7142372895</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10" t="s">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="K29" s="52">
         <f>(K12+K13+K14)</f>
-        <v>436665.21478903102</v>
+        <v>422141.84369613114</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -2032,11 +2032,11 @@
       </c>
       <c r="E30" s="19">
         <f>SUM(E29*0.2)</f>
-        <v>1625827.223743876</v>
+        <v>1328071.742847458</v>
       </c>
       <c r="K30" s="53">
         <f>SUM(K6:K23)</f>
-        <v>2222633.6427771454</v>
+        <v>2151208.7190278783</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="E31" s="19">
         <f>SUM(E29*0.2)</f>
-        <v>1625827.223743876</v>
+        <v>1328071.742847458</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -2070,7 +2070,7 @@
       <c r="D33" s="22"/>
       <c r="E33" s="15">
         <f>SUM(E29:E31)</f>
-        <v>11380790.566207131</v>
+        <v>9296502.1999322046</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="18" customHeight="1" thickBot="1">
@@ -2083,7 +2083,7 @@
       <c r="D34" s="25"/>
       <c r="E34" s="23">
         <f>SUM(E33/((1-(1/((1.05)^25)))/0.07))</f>
-        <v>1130493.0793524017</v>
+        <v>923453.54552203766</v>
       </c>
     </row>
   </sheetData>
@@ -2125,14 +2125,14 @@
         <v>105</v>
       </c>
       <c r="C3" s="68">
-        <v>8.1591007500000003</v>
+        <v>4.3025564799999998</v>
       </c>
       <c r="D3" s="66">
         <v>500</v>
       </c>
       <c r="E3" s="69">
         <f>C3*D3*8500</f>
-        <v>34676178.1875</v>
+        <v>18285865.039999999</v>
       </c>
     </row>
   </sheetData>

--- a/TEA/TEA_WSS desulfurization.xlsx
+++ b/TEA/TEA_WSS desulfurization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSID_PC22\Documents\GitHub\TeamEnv\TEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8C96BD-1F75-4383-B6DA-FB95D8C08264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44808874-E776-4C38-A1F3-D0AF8C34B542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="30264" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10236" yWindow="4620" windowWidth="30264" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Desulf" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
   <si>
     <t>Capex</t>
   </si>
@@ -343,7 +343,7 @@
     <t>EAC</t>
   </si>
   <si>
-    <t>Flow rate [tonne/h]</t>
+    <t>Flow rate [kg/h]</t>
   </si>
   <si>
     <t>Cost [USD/tonne]</t>
@@ -353,6 +353,48 @@
   </si>
   <si>
     <t>CALCI-02</t>
+  </si>
+  <si>
+    <t>ton/h</t>
+  </si>
+  <si>
+    <t>Selling price</t>
+  </si>
+  <si>
+    <t>H2 [USD/kg]</t>
+  </si>
+  <si>
+    <t>CH4 [USD/kg]</t>
+  </si>
+  <si>
+    <t>C2H6,C2H4 [USD/kg]</t>
+  </si>
+  <si>
+    <t>C4~C9 (납사) [USD/kg]</t>
+  </si>
+  <si>
+    <t>C10~C16 (디젤) [USD/kg]</t>
+  </si>
+  <si>
+    <t>CaCO3 [USD/kg]</t>
+  </si>
+  <si>
+    <t>MgCO3 [USD/kg]</t>
+  </si>
+  <si>
+    <t>Gypsum [USD/kg]</t>
+  </si>
+  <si>
+    <t>HCL [USD/kg]</t>
+  </si>
+  <si>
+    <t>Electricity [USD/kWh]</t>
+  </si>
+  <si>
+    <t>Cooling price [USD/cal]</t>
+  </si>
+  <si>
+    <t>Heating price [USD/cal]</t>
   </si>
 </sst>
 </file>
@@ -363,7 +405,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +481,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -670,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,8 +842,6 @@
     <xf numFmtId="41" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -859,6 +906,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -1142,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1198,27 +1249,27 @@
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="59">
         <v>147800</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="59">
         <v>461492</v>
       </c>
-      <c r="F5" s="62">
-        <v>478593.375</v>
-      </c>
-      <c r="G5" s="61">
+      <c r="F5" s="60">
+        <v>184.86185399999999</v>
+      </c>
+      <c r="G5" s="59">
         <v>0.5</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="59">
         <v>1997</v>
       </c>
       <c r="I5" s="2">
         <f>C5*(F5/E5)^G5*(595.6/386.5)</f>
-        <v>231942.79042225837</v>
+        <v>4558.4919121069079</v>
       </c>
       <c r="J5" s="5"/>
     </row>
@@ -1226,27 +1277,27 @@
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="59">
         <v>20000</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="59">
         <v>2500</v>
       </c>
-      <c r="F6" s="62">
-        <v>247705.034131452</v>
-      </c>
-      <c r="G6" s="63">
+      <c r="F6" s="60">
+        <v>838737.54082720005</v>
+      </c>
+      <c r="G6" s="61">
         <v>0.6</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="59">
         <v>1987</v>
       </c>
       <c r="I6" s="3">
         <f>C6*(F6/E6)^G6*(595.6/323.8)</f>
-        <v>579835.41142865806</v>
+        <v>1205367.5187410042</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -1254,27 +1305,27 @@
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="59">
         <v>20000</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="59">
         <v>2500</v>
       </c>
-      <c r="F7" s="62">
-        <v>247734.83511059999</v>
-      </c>
-      <c r="G7" s="63">
+      <c r="F7" s="60">
+        <v>863185.10345411999</v>
+      </c>
+      <c r="G7" s="61">
         <v>0.6</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="59">
         <v>1987</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="56">
         <f>C7*(F7/E7)^G7*(595.6/323.8)</f>
-        <v>579877.2658398411</v>
+        <v>1226326.7374255282</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -1282,17 +1333,17 @@
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="59">
         <v>165000</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="59">
         <v>359263</v>
       </c>
       <c r="F8" s="39">
-        <v>480036.82</v>
+        <v>1698.7950499999999</v>
       </c>
       <c r="G8">
         <v>0.6</v>
@@ -1302,7 +1353,7 @@
       </c>
       <c r="I8" s="3">
         <f>C8*(F8/E8)^G8*(595.6/389.5)</f>
-        <v>300226.07329021464</v>
+        <v>10157.065851483152</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -1310,17 +1361,17 @@
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="59">
         <v>165000</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="59">
         <v>359263</v>
       </c>
       <c r="F9" s="39">
-        <v>480036.82</v>
+        <v>74.368856699999995</v>
       </c>
       <c r="G9">
         <v>0.6</v>
@@ -1330,7 +1381,7 @@
       </c>
       <c r="I9" s="3">
         <f>C9*(F9/E9)^G9*(595.6/389.5)</f>
-        <v>300226.07329021464</v>
+        <v>1554.240920468282</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -1346,7 +1397,7 @@
       <c r="H10" s="37"/>
       <c r="I10" s="40">
         <f>SUM(I5:I9)</f>
-        <v>1992107.6142711868</v>
+        <v>2447964.0548505909</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -1370,60 +1421,60 @@
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="64">
-        <v>335032.15500000003</v>
+      <c r="C18" s="62">
+        <v>129.409784</v>
       </c>
       <c r="D18" s="36">
         <f>C18*C31*C28</f>
-        <v>81503.272346850004</v>
+        <v>1156.3023019968002</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="60">
-        <v>3686042.04</v>
+      <c r="C19" s="58">
+        <v>22968.434000000001</v>
       </c>
       <c r="D19" s="36">
         <f>C19*C31*C28</f>
-        <v>896703.4470708</v>
+        <v>205227.55147680003</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="60">
-        <v>862.51951299999996</v>
+      <c r="C20" s="58">
+        <v>2403.95246</v>
       </c>
       <c r="D20" s="36">
         <f>C20*C31*C28</f>
-        <v>209.82512192751</v>
+        <v>21479.796020592003</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="60">
-        <v>-506057.071</v>
+      <c r="C21" s="58">
+        <v>-4103.2548399999996</v>
       </c>
       <c r="D21" s="36">
         <f>C21*C30*C28</f>
-        <v>13766.4729252414</v>
+        <v>36663.402646367998</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" thickBot="1">
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="65">
-        <v>0.22062881100000001</v>
+      <c r="C22" s="63">
+        <v>1.7251106700000001</v>
       </c>
       <c r="D22" s="36">
         <f>C22*C31*C28</f>
-        <v>5.3672370851970005E-2</v>
+        <v>15.414208858584001</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1" thickBot="1">
@@ -1431,9 +1482,9 @@
         <v>17</v>
       </c>
       <c r="C23" s="38"/>
-      <c r="D23" s="55">
+      <c r="D23" s="53">
         <f>SUM(D18:D22)</f>
-        <v>992183.07113718987</v>
+        <v>264542.46665461542</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" thickBot="1"/>
@@ -1450,33 +1501,36 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="57">
-        <v>0.06</v>
+      <c r="C29" s="55">
+        <f>'Desulf revenue'!O14</f>
+        <v>0.18</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="42">
-        <v>-8.8900000000000003E-10</v>
+      <c r="C30" s="70">
+        <f>(-1)*'Desulf revenue'!O15</f>
+        <v>-2.9200000000000002E-7</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1" thickBot="1">
       <c r="A31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="43">
-        <v>7.9500000000000001E-9</v>
+      <c r="C31" s="71">
+        <f>'Desulf revenue'!O16</f>
+        <v>2.9200000000000002E-7</v>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +1604,7 @@
         <v>36</v>
       </c>
       <c r="J5" s="29"/>
-      <c r="K5" s="46"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="15" t="s">
@@ -1565,9 +1619,9 @@
       <c r="J6" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="45">
         <f>SUM(E29*0.01)</f>
-        <v>66403.587142372897</v>
+        <v>81598.801828353025</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -1582,13 +1636,13 @@
       </c>
       <c r="E7" s="41">
         <f>Desulf!I10</f>
-        <v>1992107.6142711868</v>
+        <v>2447964.0548505909</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>42</v>
       </c>
       <c r="J7" s="31"/>
-      <c r="K7" s="47"/>
+      <c r="K7" s="45"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="19" t="s">
@@ -1602,7 +1656,7 @@
       </c>
       <c r="E8" s="19">
         <f>SUM(E29*0.1)</f>
-        <v>664035.871423729</v>
+        <v>815988.01828353025</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>45</v>
@@ -1610,7 +1664,7 @@
       <c r="J8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="46" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1626,7 +1680,7 @@
       </c>
       <c r="E9" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>332017.9357118645</v>
+        <v>407994.00914176513</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>48</v>
@@ -1634,9 +1688,9 @@
       <c r="J9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="54">
         <f>Desulf!D23</f>
-        <v>992183.07113718987</v>
+        <v>264542.46665461542</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -1651,13 +1705,13 @@
       </c>
       <c r="E10" s="19">
         <f>SUM(E29*0.1)</f>
-        <v>664035.871423729</v>
+        <v>815988.01828353025</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>51</v>
       </c>
       <c r="J10" s="31"/>
-      <c r="K10" s="49" t="s">
+      <c r="K10" s="47" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1673,7 +1727,7 @@
       </c>
       <c r="E11" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>332017.9357118645</v>
+        <v>407994.00914176513</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>54</v>
@@ -1681,7 +1735,7 @@
       <c r="J11" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="54" t="s">
+      <c r="K11" s="52" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1696,9 +1750,9 @@
       <c r="J12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="48">
         <f>SUM(K6*0.04)</f>
-        <v>2656.1434856949159</v>
+        <v>3263.9520731341213</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -1714,9 +1768,9 @@
       <c r="J13" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="45">
         <f>SUM(K25*0.15)</f>
-        <v>322681.30785418174</v>
+        <v>106783.97105036514</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -1731,7 +1785,7 @@
       </c>
       <c r="E14" s="19">
         <f>SUM(E29*0.08)</f>
-        <v>531228.69713898317</v>
+        <v>652790.4146268242</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>62</v>
@@ -1739,9 +1793,9 @@
       <c r="J14" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="45">
         <f>SUM(K13*0.3)</f>
-        <v>96804.392356254524</v>
+        <v>32035.191315109543</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -1756,7 +1810,7 @@
       </c>
       <c r="E15" s="19">
         <f>SUM(E29*0.02)</f>
-        <v>132807.17428474579</v>
+        <v>163197.60365670605</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>66</v>
@@ -1764,9 +1818,9 @@
       <c r="J15" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="45">
         <f>SUM(K12*0.15)</f>
-        <v>398.42152285423737</v>
+        <v>489.59281097011819</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -1781,7 +1835,7 @@
       </c>
       <c r="E16" s="19">
         <f>SUM(E29*0.08)</f>
-        <v>531228.69713898317</v>
+        <v>652790.4146268242</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>70</v>
@@ -1789,9 +1843,9 @@
       <c r="J16" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="45">
         <f>SUM(K13*0.15)</f>
-        <v>48402.196178127262</v>
+        <v>16017.595657554772</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -1806,11 +1860,11 @@
       </c>
       <c r="E17" s="19">
         <f>SUM(E29*0.02)</f>
-        <v>132807.17428474579</v>
+        <v>163197.60365670605</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="47"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="19"/>
@@ -1823,9 +1877,9 @@
       <c r="J18" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="45">
         <f>SUM(0.6*K29)</f>
-        <v>253285.10621767867</v>
+        <v>85249.868663165282</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -1836,11 +1890,11 @@
       <c r="D19" s="17"/>
       <c r="E19" s="19">
         <f>SUM(E7:E17)</f>
-        <v>5312286.971389831</v>
+        <v>6527904.1462682439</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="47"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="19"/>
@@ -1851,7 +1905,7 @@
         <v>77</v>
       </c>
       <c r="J20" s="31"/>
-      <c r="K20" s="47"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="15" t="s">
@@ -1866,9 +1920,9 @@
       <c r="J21" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="45">
         <f>SUM(K13*0.175)</f>
-        <v>56469.2288744818</v>
+        <v>18687.194933813898</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -1883,7 +1937,7 @@
       </c>
       <c r="E22" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>332017.9357118645</v>
+        <v>407994.00914176513</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>83</v>
@@ -1891,9 +1945,9 @@
       <c r="J22" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="45">
         <f>SUM(K25*0.11)</f>
-        <v>236632.9590930666</v>
+        <v>78308.245436934449</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -1908,7 +1962,7 @@
       </c>
       <c r="E23" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>332017.9357118645</v>
+        <v>407994.00914176513</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>87</v>
@@ -1916,9 +1970,9 @@
       <c r="J23" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="45">
         <f>SUM(K25*0.035)</f>
-        <v>75292.305165975748</v>
+        <v>24916.259911751869</v>
       </c>
     </row>
     <row r="24" spans="2:11">
@@ -1933,11 +1987,11 @@
       </c>
       <c r="E24" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>332017.9357118645</v>
+        <v>407994.00914176513</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="34"/>
-      <c r="K24" s="47"/>
+      <c r="K24" s="45"/>
     </row>
     <row r="25" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="B25" s="19" t="s">
@@ -1951,15 +2005,15 @@
       </c>
       <c r="E25" s="19">
         <f>SUM(E29*0.05)</f>
-        <v>332017.9357118645</v>
+        <v>407994.00914176513</v>
       </c>
       <c r="I25" s="24" t="s">
         <v>92</v>
       </c>
       <c r="J25" s="24"/>
-      <c r="K25" s="51">
+      <c r="K25" s="49">
         <f>SUM(K27/0.49425)</f>
-        <v>2151208.7190278783</v>
+        <v>711893.14033576765</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -1969,7 +2023,7 @@
       <c r="E26" s="19"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
-      <c r="K26" s="52"/>
+      <c r="K26" s="50"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="15" t="s">
@@ -1979,13 +2033,13 @@
       <c r="D27" s="17"/>
       <c r="E27" s="19">
         <f>SUM(E22:E25)</f>
-        <v>1328071.742847458</v>
+        <v>1631976.0365670605</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="52">
+      <c r="K27" s="50">
         <f>SUM(K6:K12,K15,0.6*K12)</f>
-        <v>1063234.9093795288</v>
+        <v>351853.18461095315</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -1995,7 +2049,7 @@
       <c r="E28" s="19"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="52"/>
+      <c r="K28" s="50"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="19" t="s">
@@ -2009,15 +2063,15 @@
       </c>
       <c r="E29" s="19">
         <f>SUM(E7*100/D7)</f>
-        <v>6640358.7142372895</v>
+        <v>8159880.1828353023</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="K29" s="52">
+      <c r="K29" s="50">
         <f>(K12+K13+K14)</f>
-        <v>422141.84369613114</v>
+        <v>142083.11443860881</v>
       </c>
     </row>
     <row r="30" spans="2:11">
@@ -2032,11 +2086,11 @@
       </c>
       <c r="E30" s="19">
         <f>SUM(E29*0.2)</f>
-        <v>1328071.742847458</v>
-      </c>
-      <c r="K30" s="53">
+        <v>1631976.0365670605</v>
+      </c>
+      <c r="K30" s="51">
         <f>SUM(K6:K23)</f>
-        <v>2151208.7190278783</v>
+        <v>711893.14033576753</v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -2051,7 +2105,7 @@
       </c>
       <c r="E31" s="19">
         <f>SUM(E29*0.2)</f>
-        <v>1328071.742847458</v>
+        <v>1631976.0365670605</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -2070,7 +2124,7 @@
       <c r="D33" s="22"/>
       <c r="E33" s="15">
         <f>SUM(E29:E31)</f>
-        <v>9296502.1999322046</v>
+        <v>11423832.255969424</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="18" customHeight="1" thickBot="1">
@@ -2083,7 +2137,7 @@
       <c r="D34" s="25"/>
       <c r="E34" s="23">
         <f>SUM(E33/((1-(1/((1.05)^25)))/0.07))</f>
-        <v>923453.54552203766</v>
+        <v>1134768.5584693258</v>
       </c>
     </row>
   </sheetData>
@@ -2094,23 +2148,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:E3"/>
+  <dimension ref="B1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="3" max="3" width="18.8984375" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.3984375" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="23" style="35" customWidth="1"/>
+    <col min="14" max="14" width="20.796875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:5" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="2:15" ht="18" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:15" ht="18" customHeight="1" thickBot="1">
       <c r="B2" s="4"/>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="65" t="s">
         <v>102</v>
       </c>
       <c r="D2" s="37" t="s">
@@ -2120,19 +2175,128 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" customHeight="1" thickBot="1">
+    <row r="3" spans="2:15" ht="18" customHeight="1" thickBot="1">
       <c r="B3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="68">
-        <v>4.3025564799999998</v>
-      </c>
-      <c r="D3" s="66">
+      <c r="C3" s="66">
+        <v>11.2759176</v>
+      </c>
+      <c r="D3" s="64">
+        <f>O12*1000</f>
         <v>500</v>
       </c>
-      <c r="E3" s="69">
-        <f>C3*D3*8500</f>
-        <v>18285865.039999999</v>
+      <c r="E3" s="67">
+        <f>C4*D3*8500</f>
+        <v>47922.649799999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4">
+        <f>C3*0.001</f>
+        <v>1.1275917599999999E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="N5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5">
+        <v>306801.69477261457</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="N6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="N7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="N8" t="s">
+        <v>111</v>
+      </c>
+      <c r="O8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9">
+        <v>1.457142857</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="68">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" s="68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" s="68">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="N14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="N15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" s="69">
+        <v>2.9200000000000002E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="N16" t="s">
+        <v>119</v>
+      </c>
+      <c r="O16" s="69">
+        <v>2.9200000000000002E-7</v>
       </c>
     </row>
   </sheetData>
